--- a/data/trans_bre/P15A-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P15A-Habitat-trans_bre.xlsx
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-2.740723178607785</v>
+        <v>-2.802293417257855</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-0.1519247946744632</v>
+        <v>-0.1454490419627743</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-1.328925948991361</v>
+        <v>-1.239848862998174</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-2.114155788934485</v>
+        <v>-2.313966914402124</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>-0.6286871693852428</v>
+        <v>-0.6440138132070036</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>-0.1237836576048396</v>
+        <v>-0.08490072716742769</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>-0.435895358484636</v>
+        <v>-0.4282960811288961</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>-0.4938824877793934</v>
+        <v>-0.4976016688947276</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.789429700456232</v>
+        <v>0.7314058953243995</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>3.70091533468446</v>
+        <v>3.2626111609973</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>2.25635249849199</v>
+        <v>2.185127184079038</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>1.580671629307685</v>
+        <v>1.469001777631618</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.4008729694937306</v>
+        <v>0.329318100915479</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>2.840999734774081</v>
+        <v>2.357934953789098</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>1.339268072336418</v>
+        <v>1.372658203010422</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>0.9355803436722309</v>
+        <v>0.8393566306644542</v>
       </c>
     </row>
     <row r="7">
@@ -737,7 +737,7 @@
         <v>-0.9222102032411815</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>-0.09954684641843223</v>
+        <v>-0.09954684641843119</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>-0.3003639101948872</v>
@@ -749,7 +749,7 @@
         <v>-0.286346644905471</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>-0.03391221475432674</v>
+        <v>-0.0339122147543264</v>
       </c>
     </row>
     <row r="8">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-3.329273071661385</v>
+        <v>-3.0748976491918</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>-1.777221368825673</v>
+        <v>-1.59960175816597</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>-2.337875697210611</v>
+        <v>-2.433217388052881</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>-1.76261837175468</v>
+        <v>-1.760347653086438</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.58732197333196</v>
+        <v>-0.5762613963684052</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.4577837429060633</v>
+        <v>-0.4254795683834113</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.5876823201237321</v>
+        <v>-0.5992782294430788</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.4367867882420933</v>
+        <v>-0.4415408563946279</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.246783879649567</v>
+        <v>0.3775801203221257</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>1.293787956840872</v>
+        <v>1.307957230273269</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.650857500753097</v>
+        <v>0.6123684705143896</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>1.620954395326502</v>
+        <v>1.538936698973471</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.08538177476216761</v>
+        <v>0.1066077694455652</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.6117915432458283</v>
+        <v>0.6365331181220337</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.3133277983389059</v>
+        <v>0.291845153300003</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.8515757334478938</v>
+        <v>0.7082987471060079</v>
       </c>
     </row>
     <row r="10">
@@ -837,7 +837,7 @@
         <v>-0.2708315316516384</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>0.8735716299219969</v>
+        <v>0.8735716299219966</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.005067021545471029</v>
@@ -849,7 +849,7 @@
         <v>-0.1677191888245846</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>0.4627285799090551</v>
+        <v>0.4627285799090549</v>
       </c>
     </row>
     <row r="11">
@@ -860,28 +860,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-1.950378362236298</v>
+        <v>-2.217642727385604</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-1.534838028051254</v>
+        <v>-1.854303675114846</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-1.480823702494902</v>
+        <v>-1.563585102893351</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-0.7785741047354193</v>
+        <v>-0.6097162533330255</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>-0.4328825619301928</v>
+        <v>-0.4776974662577925</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>-0.4606981504724085</v>
+        <v>-0.5221669593482686</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>-0.66462704191077</v>
+        <v>-0.6762843084436775</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>-0.2777857177752387</v>
+        <v>-0.2734188988801327</v>
       </c>
     </row>
     <row r="12">
@@ -892,28 +892,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>2.100210834097593</v>
+        <v>1.952083655993705</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>1.91124447016828</v>
+        <v>1.767688549434266</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.9091471125701479</v>
+        <v>0.9874561925581156</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>2.101001497977336</v>
+        <v>2.261547216217165</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.9453452725356024</v>
+        <v>0.779288410335254</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>1.196295612631108</v>
+        <v>0.9368898484910608</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>1.097206138293078</v>
+        <v>1.05578504983521</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>1.889777022482015</v>
+        <v>2.093381243318358</v>
       </c>
     </row>
     <row r="13">
@@ -960,28 +960,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-3.016543553179851</v>
+        <v>-2.999076697418925</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>-3.076202209374244</v>
+        <v>-3.173506811085276</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>-1.332008458690534</v>
+        <v>-1.377076520726705</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>-0.5377515683095998</v>
+        <v>-0.6235688350409161</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.6308675886647045</v>
+        <v>-0.6592962093536306</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.6714586190741912</v>
+        <v>-0.6422333971801426</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.3792558814191348</v>
+        <v>-0.377739128027422</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.224476588285888</v>
+        <v>-0.2649156012166846</v>
       </c>
     </row>
     <row r="15">
@@ -992,28 +992,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.1912752897212858</v>
+        <v>0.2774525754338896</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.06487784189215248</v>
+        <v>-0.09643036297521147</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>1.988282161137232</v>
+        <v>1.929490029313443</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>1.631867080176978</v>
+        <v>1.595825784261948</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.1034316136328776</v>
+        <v>0.1141955057425674</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.04379986377741797</v>
+        <v>-0.007854355685447499</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.9402276569834821</v>
+        <v>0.846659419995581</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>1.436572222047645</v>
+        <v>1.321866589746692</v>
       </c>
     </row>
     <row r="16">
@@ -1037,7 +1037,7 @@
         <v>-0.1564187685554639</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>0.331320906680218</v>
+        <v>0.3313209066802183</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>-0.2609806728110414</v>
@@ -1049,7 +1049,7 @@
         <v>-0.05958184178642108</v>
       </c>
       <c r="J16" s="6" t="n">
-        <v>0.1421467479811015</v>
+        <v>0.1421467479811017</v>
       </c>
     </row>
     <row r="17">
@@ -1060,28 +1060,28 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-1.863488035422201</v>
+        <v>-1.820263526764278</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-0.9519785177997051</v>
+        <v>-0.9945777883986212</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-0.9835127791409757</v>
+        <v>-0.8917232177573206</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-0.4115432855571462</v>
+        <v>-0.3911738464739645</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>-0.4389529851420423</v>
+        <v>-0.4307174132605491</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>-0.2890712001453891</v>
+        <v>-0.2957880747240462</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>-0.3291581750583808</v>
+        <v>-0.2940237011968156</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>-0.1427588792632745</v>
+        <v>-0.1428755370837963</v>
       </c>
     </row>
     <row r="18">
@@ -1092,28 +1092,28 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>-0.07374099512268341</v>
+        <v>-0.1141873058886405</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.7334943853481712</v>
+        <v>0.7183288362551769</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.5475056012354222</v>
+        <v>0.6127252754384429</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>1.05421976833912</v>
+        <v>1.032906058792599</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>-0.01360634543437068</v>
+        <v>-0.02272933965689299</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.290901746072637</v>
+        <v>0.3041801098265073</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.2401544959597448</v>
+        <v>0.2754112844124136</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>0.5663440216047487</v>
+        <v>0.5665649624379876</v>
       </c>
     </row>
     <row r="19">
